--- a/Entregaveis/1.RepositorioSemantico/Imunizacao/ConceptMap/SNOMED-Brazil-Feedback-BL.xlsx
+++ b/Entregaveis/1.RepositorioSemantico/Imunizacao/ConceptMap/SNOMED-Brazil-Feedback-BL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/beatrizdefarialeao/Documents/GitHub/ips-brasil-documentos/Entregaveis/1.RepositorioSemantico/Imunizacao/ConceptMap/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46D627C0-87FC-5C46-BCA1-4AB9611D23E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E133C7A-E2C9-344F-8E90-86C94026898B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17900" xr2:uid="{0A5B242D-BE12-4F05-BC25-436AB61E8C4A}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="91">
   <si>
     <t>Brazilian Vaccine List Code</t>
   </si>
@@ -315,6 +315,12 @@
   </si>
   <si>
     <t>Description</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brazilian response </t>
+  </si>
+  <si>
+    <t>Observation</t>
   </si>
 </sst>
 </file>
@@ -420,13 +426,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
+        <fgColor theme="5" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -549,9 +555,6 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -562,37 +565,40 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -909,8 +915,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C1A184D-4485-F745-A9E7-0C0B40D75228}">
   <dimension ref="A2:J32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -946,12 +952,16 @@
       <c r="F3" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="G3" s="12" t="s">
+      <c r="G3" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15"/>
-      <c r="J3" s="15"/>
+      <c r="H3" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="I3" s="14"/>
+      <c r="J3" s="11" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="4" spans="1:10" ht="61" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
@@ -972,14 +982,15 @@
       <c r="F4" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="G4" s="13" t="s">
+      <c r="G4" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="H4" s="16" t="s">
+      <c r="H4" s="25" t="s">
         <v>76</v>
       </c>
-      <c r="I4" s="15"/>
-      <c r="J4" s="15"/>
+      <c r="I4" s="14" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="5" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
@@ -1001,9 +1012,9 @@
       <c r="G5" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="H5" s="15"/>
-      <c r="I5" s="15"/>
-      <c r="J5" s="15"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14"/>
     </row>
     <row r="6" spans="1:10" ht="46" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
@@ -1024,14 +1035,14 @@
       <c r="F6" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="G6" s="13" t="s">
+      <c r="G6" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="H6" s="17" t="s">
+      <c r="H6" s="26" t="s">
         <v>75</v>
       </c>
-      <c r="I6" s="15"/>
-      <c r="J6" s="15"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
     </row>
     <row r="7" spans="1:10" ht="46" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
@@ -1050,14 +1061,14 @@
       <c r="F7" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="G7" s="13" t="s">
+      <c r="G7" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="H7" s="17" t="s">
+      <c r="H7" s="26" t="s">
         <v>81</v>
       </c>
-      <c r="I7" s="15"/>
-      <c r="J7" s="15"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="14"/>
     </row>
     <row r="8" spans="1:10" ht="35" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
@@ -1076,12 +1087,12 @@
       <c r="F8" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="G8" s="14" t="s">
+      <c r="G8" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="H8" s="15"/>
-      <c r="I8" s="15"/>
-      <c r="J8" s="15"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
     </row>
     <row r="9" spans="1:10" ht="35" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
@@ -1100,12 +1111,12 @@
       <c r="F9" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="G9" s="14" t="s">
+      <c r="G9" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="15"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="14"/>
     </row>
     <row r="10" spans="1:10" ht="52" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
@@ -1124,12 +1135,12 @@
       <c r="F10" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="G10" s="14" t="s">
+      <c r="G10" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="H10" s="15"/>
-      <c r="I10" s="15"/>
-      <c r="J10" s="15"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="14"/>
     </row>
     <row r="11" spans="1:10" ht="35" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
@@ -1151,9 +1162,9 @@
       <c r="G11" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="H11" s="15"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="15"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="14"/>
     </row>
     <row r="12" spans="1:10" ht="35" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
@@ -1175,9 +1186,9 @@
       <c r="G12" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="H12" s="15"/>
-      <c r="I12" s="15"/>
-      <c r="J12" s="15"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="14"/>
     </row>
     <row r="13" spans="1:10" ht="46" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
@@ -1201,11 +1212,11 @@
       <c r="G13" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="H13" s="11" t="s">
+      <c r="H13" s="27" t="s">
         <v>77</v>
       </c>
-      <c r="I13" s="15"/>
-      <c r="J13" s="15"/>
+      <c r="I13" s="14"/>
+      <c r="J13" s="14"/>
     </row>
     <row r="14" spans="1:10" ht="31" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
@@ -1229,9 +1240,9 @@
       <c r="G14" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="H14" s="15"/>
-      <c r="I14" s="15"/>
-      <c r="J14" s="15"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="14"/>
+      <c r="J14" s="14"/>
     </row>
     <row r="15" spans="1:10" ht="61" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
@@ -1255,39 +1266,39 @@
       <c r="G15" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="H15" s="15"/>
-      <c r="I15" s="15"/>
-      <c r="J15" s="15"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="14"/>
+      <c r="J15" s="14"/>
     </row>
     <row r="16" spans="1:10" ht="409.6" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="20">
+      <c r="A16" s="16">
         <v>19</v>
       </c>
-      <c r="B16" s="21" t="s">
+      <c r="B16" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="C16" s="21" t="s">
+      <c r="C16" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="D16" s="22" t="s">
+      <c r="D16" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="E16" s="23" t="s">
+      <c r="E16" s="19" t="s">
         <v>79</v>
       </c>
-      <c r="F16" s="23" t="s">
+      <c r="F16" s="19" t="s">
         <v>80</v>
       </c>
-      <c r="G16" s="24" t="s">
+      <c r="G16" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="H16" s="18" t="s">
+      <c r="H16" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="I16" s="18" t="s">
+      <c r="I16" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="J16" s="18" t="s">
+      <c r="J16" s="15" t="s">
         <v>84</v>
       </c>
     </row>
@@ -1313,9 +1324,9 @@
       <c r="G17" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="H17" s="15"/>
-      <c r="I17" s="15"/>
-      <c r="J17" s="15"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="14"/>
+      <c r="J17" s="14"/>
     </row>
     <row r="18" spans="1:10" ht="31" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="7">
@@ -1339,9 +1350,9 @@
       <c r="G18" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="H18" s="15"/>
-      <c r="I18" s="15"/>
-      <c r="J18" s="15"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="14"/>
+      <c r="J18" s="14"/>
     </row>
     <row r="19" spans="1:10" ht="35" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="7">
@@ -1365,9 +1376,9 @@
       <c r="G19" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="H19" s="15"/>
-      <c r="I19" s="15"/>
-      <c r="J19" s="15"/>
+      <c r="H19" s="14"/>
+      <c r="I19" s="14"/>
+      <c r="J19" s="14"/>
     </row>
     <row r="20" spans="1:10" ht="35" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="7">
@@ -1391,9 +1402,9 @@
       <c r="G20" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="H20" s="15"/>
-      <c r="I20" s="15"/>
-      <c r="J20" s="15"/>
+      <c r="H20" s="14"/>
+      <c r="I20" s="14"/>
+      <c r="J20" s="14"/>
     </row>
     <row r="21" spans="1:10" ht="46" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="7">
@@ -1414,14 +1425,14 @@
       <c r="F21" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="G21" s="13" t="s">
+      <c r="G21" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="H21" s="19" t="s">
+      <c r="H21" s="28" t="s">
         <v>78</v>
       </c>
-      <c r="I21" s="15"/>
-      <c r="J21" s="15"/>
+      <c r="I21" s="14"/>
+      <c r="J21" s="14"/>
     </row>
     <row r="22" spans="1:10" ht="35" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
@@ -1445,9 +1456,9 @@
       <c r="G22" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="H22" s="15"/>
-      <c r="I22" s="15"/>
-      <c r="J22" s="15"/>
+      <c r="H22" s="14"/>
+      <c r="I22" s="14"/>
+      <c r="J22" s="14"/>
     </row>
     <row r="23" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
@@ -1471,54 +1482,54 @@
       <c r="G23" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="H23" s="15"/>
-      <c r="I23" s="15"/>
-      <c r="J23" s="15"/>
+      <c r="H23" s="14"/>
+      <c r="I23" s="14"/>
+      <c r="J23" s="14"/>
     </row>
     <row r="26" spans="1:10" ht="19" x14ac:dyDescent="0.25">
-      <c r="A26" s="26" t="s">
+      <c r="A26" s="22" t="s">
         <v>85</v>
       </c>
-      <c r="B26" s="26"/>
-      <c r="C26" s="26"/>
+      <c r="B26" s="22"/>
+      <c r="C26" s="22"/>
     </row>
     <row r="27" spans="1:10" ht="16" x14ac:dyDescent="0.2">
-      <c r="A27" s="25" t="s">
+      <c r="A27" s="21" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="16" x14ac:dyDescent="0.2">
-      <c r="A28" s="25"/>
+      <c r="A28" s="21"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A29" s="28" t="s">
+      <c r="A29" s="24" t="s">
         <v>87</v>
       </c>
-      <c r="B29" s="28" t="s">
+      <c r="B29" s="24" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="16" x14ac:dyDescent="0.2">
-      <c r="A30" s="27">
+      <c r="A30" s="23">
         <v>70275008</v>
       </c>
-      <c r="B30" s="27" t="s">
+      <c r="B30" s="23" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="16" x14ac:dyDescent="0.2">
-      <c r="A31" s="27">
+      <c r="A31" s="23">
         <v>64753004</v>
       </c>
-      <c r="B31" s="27" t="s">
+      <c r="B31" s="23" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="16" x14ac:dyDescent="0.2">
-      <c r="A32" s="27">
+      <c r="A32" s="23">
         <v>56541000</v>
       </c>
-      <c r="B32" s="27" t="s">
+      <c r="B32" s="23" t="s">
         <v>57</v>
       </c>
     </row>
